--- a/Bug Reports/Exploratory Defect Report.xlsx
+++ b/Bug Reports/Exploratory Defect Report.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gladius/Documents/SENG 637/Assignment 1/a1-ExGranite/Bug Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943C3625-53D8-824F-BDCD-5DB86AE6E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606E6C33-2C52-474C-A58E-19BED37E4139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="33420" windowHeight="21140" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$41</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
   <si>
     <t>Use Case</t>
   </si>
@@ -62,22 +65,319 @@
     <t>Status on version 1.1</t>
   </si>
   <si>
-    <t>Success/Failure on version 1.0</t>
-  </si>
-  <si>
-    <t>Success/Failure on version 1.1</t>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Partial Success</t>
+  </si>
+  <si>
+    <t>Withdraw 20, but system gives 40. Withdraw 40 but system gives 60. Withdraw 60, but system gives 100. Incorrect everytime.</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Not Fixed</t>
+  </si>
+  <si>
+    <t>No dollar sign for 60</t>
+  </si>
+  <si>
+    <t>New Bug</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <t>Steps to Reproduce the Defect</t>
   </si>
   <si>
     <t>Defect #</t>
+  </si>
+  <si>
+    <t>Move amount from one account to another</t>
+  </si>
+  <si>
+    <t>Two separate accounts exist in a card</t>
+  </si>
+  <si>
+    <t>Move 10 from checking to savings</t>
+  </si>
+  <si>
+    <t>Checking amount decrease by 10, savings increase y 10.</t>
+  </si>
+  <si>
+    <t>Only 9.5 moved, receipt shows incorrect To and From fields</t>
+  </si>
+  <si>
+    <t>Receipt shows incorrect To and From fields</t>
+  </si>
+  <si>
+    <t>Receipt Output</t>
+  </si>
+  <si>
+    <t>A valid card has been accepted</t>
+  </si>
+  <si>
+    <t>Complete any transaction to get a receipt</t>
+  </si>
+  <si>
+    <t>Card 1 says card 2. Card 2 says card 3.</t>
+  </si>
+  <si>
+    <t>Card 1 will say card 1. Card 2 will say cad 2.</t>
+  </si>
+  <si>
+    <t>Prompt for another transaction</t>
+  </si>
+  <si>
+    <t>At least one transaction was done in a seesion</t>
+  </si>
+  <si>
+    <t>Complete/Cancel a transaction</t>
+  </si>
+  <si>
+    <t>System asks for another transaction</t>
+  </si>
+  <si>
+    <t>Says "Wood" instead of "Would"</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Spelling Mistake</t>
+  </si>
+  <si>
+    <t>Version 1.0</t>
+  </si>
+  <si>
+    <t>Version 1.1</t>
+  </si>
+  <si>
+    <t>Balance Iquiry</t>
+  </si>
+  <si>
+    <t>Check balance of Savings</t>
+  </si>
+  <si>
+    <t>Using Card 1 and system shows available accounts</t>
+  </si>
+  <si>
+    <t>Shows the available balance</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Shows Unknown Error. Then gives 500.</t>
+  </si>
+  <si>
+    <t>No Savings option</t>
+  </si>
+  <si>
+    <t>Withdraw money</t>
+  </si>
+  <si>
+    <t>System shows accounts</t>
+  </si>
+  <si>
+    <t>Chose Checking</t>
+  </si>
+  <si>
+    <t>Chose Savings</t>
+  </si>
+  <si>
+    <t>Gives options for amount withdrawal</t>
+  </si>
+  <si>
+    <t>Enter a card number not saved</t>
+  </si>
+  <si>
+    <t>System asks to enter card</t>
+  </si>
+  <si>
+    <t>Enter card number 3 and enter PIN</t>
+  </si>
+  <si>
+    <t>System says failure</t>
+  </si>
+  <si>
+    <t>An active session with a card</t>
+  </si>
+  <si>
+    <t>0.1 deposited less. Available is 100. Cannot withrdaw more than 100.</t>
+  </si>
+  <si>
+    <t>Deposit a certain amount</t>
+  </si>
+  <si>
+    <t>Withdraw money above 100</t>
+  </si>
+  <si>
+    <t>An active session with a card with more than 100 deposited on checking</t>
+  </si>
+  <si>
+    <t>Deposit 2000 to checking</t>
+  </si>
+  <si>
+    <t>2000 depositted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110 withdrawn</t>
+  </si>
+  <si>
+    <t>Withdraw 110</t>
+  </si>
+  <si>
+    <t>10 deposited less. Available is 100.</t>
+  </si>
+  <si>
+    <t>Available is 100. Cannot withdraw more</t>
+  </si>
+  <si>
+    <t>Available is always a max of 100.</t>
+  </si>
+  <si>
+    <t>Check balance of Money Market in card 1</t>
+  </si>
+  <si>
+    <t>Chose Money Market</t>
+  </si>
+  <si>
+    <t>Invalid Account Type</t>
+  </si>
+  <si>
+    <t>System show account types</t>
+  </si>
+  <si>
+    <t>Chose any of the transactions</t>
+  </si>
+  <si>
+    <t>Session with card 1 is active and system shows transaction options</t>
+  </si>
+  <si>
+    <t>Shows Checking and Savings</t>
+  </si>
+  <si>
+    <t>Shows additional Money Market</t>
+  </si>
+  <si>
+    <t>Session with card 2 is active and system shows transaction options</t>
+  </si>
+  <si>
+    <t>Shows Checking and Money Market</t>
+  </si>
+  <si>
+    <t>Shows additional Savings</t>
+  </si>
+  <si>
+    <t>Accounts in inquiry</t>
+  </si>
+  <si>
+    <t>Chose Balance Inquiry</t>
+  </si>
+  <si>
+    <t>Does not show Savings</t>
+  </si>
+  <si>
+    <t>Shows Savings</t>
+  </si>
+  <si>
+    <t>Still shows additional Money Market from number 9</t>
+  </si>
+  <si>
+    <t>System shows withdraw amount options</t>
+  </si>
+  <si>
+    <t>Chose any amount</t>
+  </si>
+  <si>
+    <t>Proper amount withdrawn</t>
+  </si>
+  <si>
+    <t>Re-enter PIN</t>
+  </si>
+  <si>
+    <t>Enter incorrect PIN once, and system asks to re-enter pin</t>
+  </si>
+  <si>
+    <t>Enter Correct PIN</t>
+  </si>
+  <si>
+    <t>PIN accepted</t>
+  </si>
+  <si>
+    <t>The correct PIN has to be entered twice</t>
+  </si>
+  <si>
+    <t>Enter a large amount</t>
+  </si>
+  <si>
+    <t>Active session with a card</t>
+  </si>
+  <si>
+    <t>Chose to deposit to any account and enter an amount more than 10 significant figures</t>
+  </si>
+  <si>
+    <t>Cash deposited</t>
+  </si>
+  <si>
+    <t>The system freezes and needs to be restarted</t>
+  </si>
+  <si>
+    <t>System just freezes and needs to be restarted</t>
+  </si>
+  <si>
+    <t>This is probably a limit on the data type</t>
+  </si>
+  <si>
+    <t>Enter cash amount</t>
+  </si>
+  <si>
+    <t>Turn on the system</t>
+  </si>
+  <si>
+    <t>Enter a number more than 9 significant figures</t>
+  </si>
+  <si>
+    <t>System turns on</t>
+  </si>
+  <si>
+    <t>Tells to enter a number greater than or equal to 0, even after entering a positive number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -114,12 +414,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -456,262 +759,867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5A16A1-E745-6E48-B52F-6963B7701D4B}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="30.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.83203125" style="1"/>
+    <col min="3" max="3" width="15.83203125" style="3" customWidth="1"/>
+    <col min="4" max="9" width="30.83203125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="15.83203125" style="1"/>
+    <col min="14" max="14" width="25.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{40B6FFE7-1742-2F42-A6F8-22FF9613680D}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Bug Reports/Exploratory Defect Report.xlsx
+++ b/Bug Reports/Exploratory Defect Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saadz-khan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gladius/Documents/SENG 637/Assignment 1/a1-ExGranite/Bug Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD5C8A6-9C2B-7D44-B524-AEBC8F490A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B4F2E-C255-EF44-8826-6C25FDD2B58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18880" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>Use Case</t>
   </si>
@@ -374,16 +374,16 @@
     <t>Enter PIN</t>
   </si>
   <si>
-    <t>Enter a longer PIN and you will be able to see there is no character limit</t>
-  </si>
-  <si>
-    <t>PIN should be restricted in terms of characters</t>
-  </si>
-  <si>
-    <t>PIN accepted for a given size for example 4 which is standard</t>
-  </si>
-  <si>
-    <t>There is probably no limit on the PIN characters when being defined</t>
+    <t>System asks for PIN</t>
+  </si>
+  <si>
+    <t>Enter a PIN of length more than 4</t>
+  </si>
+  <si>
+    <t>Takes a maximum of 4 length</t>
+  </si>
+  <si>
+    <t>Can enter a PIN of length more than 4</t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5A16A1-E745-6E48-B52F-6963B7701D4B}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="86" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="125" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1523,16 +1523,16 @@
         <v>111</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>113</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>17</v>
@@ -1545,9 +1545,6 @@
       </c>
       <c r="M18" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.2">

--- a/Bug Reports/Exploratory Defect Report.xlsx
+++ b/Bug Reports/Exploratory Defect Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gladius/Documents/SENG 637/Assignment 1/a1-ExGranite/Bug Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B4F2E-C255-EF44-8826-6C25FDD2B58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D077EB-4384-044C-9B98-B51C6B3A1F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18880" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
+    <workbookView xWindow="140" yWindow="1060" windowWidth="16880" windowHeight="21040" xr2:uid="{A07C5CE1-8239-7940-856B-018EAA5653E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5A16A1-E745-6E48-B52F-6963B7701D4B}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="125" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="125" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
